--- a/uploads/Набор_данных_БашНИПИ_+СФУ+4столбца_filled.xlsx
+++ b/uploads/Набор_данных_БашНИПИ_+СФУ+4столбца_filled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleksei\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleksei\Desktop\DrillingMixtureWebApp\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9F5E4A-C417-4EE7-8980-451AF38FF60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ADCD5F-011E-4387-95E3-BDE1CD471BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="732" windowWidth="23040" windowHeight="11628" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="732" windowWidth="23040" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,12 +102,6 @@
     <t>Модель Бингама_PV</t>
   </si>
   <si>
-    <t>Модель Оствальда-де-Ваале_n</t>
-  </si>
-  <si>
-    <t>Модель Оствальда-де-Ваале_K</t>
-  </si>
-  <si>
     <t>Базовой раствор №1</t>
   </si>
   <si>
@@ -514,6 +508,12 @@
   </si>
   <si>
     <t>мл/30 мин</t>
+  </si>
+  <si>
+    <t>K_Модель Оствальда-де-Ваале</t>
+  </si>
+  <si>
+    <t>n_Модель Оствальда-де-Ваале</t>
   </si>
 </sst>
 </file>
@@ -885,7 +885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB129"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -969,15 +971,15 @@
         <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1063,7 +1065,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1149,7 +1151,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1235,7 +1237,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1321,7 +1323,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1407,7 +1409,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1493,7 +1495,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1579,7 +1581,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1665,7 +1667,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1751,7 +1753,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1837,7 +1839,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1923,7 +1925,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2009,7 +2011,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2095,7 +2097,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2181,7 +2183,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2267,7 +2269,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2353,7 +2355,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2439,7 +2441,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2525,7 +2527,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -2611,7 +2613,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -2697,7 +2699,7 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -2783,7 +2785,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -2869,7 +2871,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -2955,7 +2957,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -3041,7 +3043,7 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -3127,7 +3129,7 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -3213,7 +3215,7 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -3299,7 +3301,7 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -3385,7 +3387,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -3471,7 +3473,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -3557,7 +3559,7 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -3643,7 +3645,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -3729,7 +3731,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -3815,7 +3817,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -3901,7 +3903,7 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -3987,7 +3989,7 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -4073,7 +4075,7 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -4159,7 +4161,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B39">
         <v>39</v>
@@ -4245,7 +4247,7 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -4331,7 +4333,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B41">
         <v>41</v>
@@ -4417,7 +4419,7 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B42">
         <v>42</v>
@@ -4503,7 +4505,7 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B43">
         <v>43</v>
@@ -4589,7 +4591,7 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B44">
         <v>44</v>
@@ -4675,7 +4677,7 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B45">
         <v>45</v>
@@ -4761,7 +4763,7 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B46">
         <v>46</v>
@@ -4847,7 +4849,7 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B47">
         <v>47</v>
@@ -4933,7 +4935,7 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B48">
         <v>48</v>
@@ -5019,7 +5021,7 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B49">
         <v>49</v>
@@ -5105,7 +5107,7 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B50">
         <v>50</v>
@@ -5191,7 +5193,7 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B51">
         <v>51</v>
@@ -5277,7 +5279,7 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B52">
         <v>52</v>
@@ -5363,7 +5365,7 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B53">
         <v>53</v>
@@ -5449,7 +5451,7 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B54">
         <v>54</v>
@@ -5535,7 +5537,7 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B55">
         <v>55</v>
@@ -5621,7 +5623,7 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -5707,7 +5709,7 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B57">
         <v>57</v>
@@ -5793,7 +5795,7 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B58">
         <v>58</v>
@@ -5879,7 +5881,7 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B59">
         <v>59</v>
@@ -5965,7 +5967,7 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B60">
         <v>60</v>
@@ -6051,7 +6053,7 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B61">
         <v>61</v>
@@ -6137,7 +6139,7 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B62">
         <v>62</v>
@@ -6223,7 +6225,7 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B63">
         <v>63</v>
@@ -6309,7 +6311,7 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B64">
         <v>64</v>
@@ -6395,7 +6397,7 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B65">
         <v>65</v>
@@ -6481,7 +6483,7 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B66">
         <v>66</v>
@@ -6567,7 +6569,7 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B67">
         <v>67</v>
@@ -6653,7 +6655,7 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B68">
         <v>68</v>
@@ -6739,7 +6741,7 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B69">
         <v>69</v>
@@ -6825,7 +6827,7 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B70">
         <v>70</v>
@@ -6911,7 +6913,7 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B71">
         <v>71</v>
@@ -6997,7 +6999,7 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B72">
         <v>72</v>
@@ -7083,7 +7085,7 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B73">
         <v>73</v>
@@ -7169,7 +7171,7 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B74">
         <v>74</v>
@@ -7255,7 +7257,7 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B75">
         <v>75</v>
@@ -7341,7 +7343,7 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B76">
         <v>76</v>
@@ -7427,7 +7429,7 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B77">
         <v>77</v>
@@ -7513,7 +7515,7 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B78">
         <v>78</v>
@@ -7599,7 +7601,7 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B79">
         <v>79</v>
@@ -7685,7 +7687,7 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B80">
         <v>80</v>
@@ -7771,7 +7773,7 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B81">
         <v>81</v>
@@ -7857,7 +7859,7 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B82">
         <v>82</v>
@@ -7943,7 +7945,7 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B83">
         <v>83</v>
@@ -8029,7 +8031,7 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B84">
         <v>84</v>
@@ -8115,7 +8117,7 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B85">
         <v>85</v>
@@ -8201,7 +8203,7 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B86">
         <v>86</v>
@@ -8287,7 +8289,7 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B87">
         <v>87</v>
@@ -8373,7 +8375,7 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B88">
         <v>88</v>
@@ -8459,7 +8461,7 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B89">
         <v>89</v>
@@ -8545,7 +8547,7 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B90">
         <v>90</v>
@@ -8631,7 +8633,7 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B91">
         <v>91</v>
@@ -8717,7 +8719,7 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B92">
         <v>94</v>
@@ -8803,7 +8805,7 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B93">
         <v>95</v>
@@ -8889,7 +8891,7 @@
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B94">
         <v>96</v>
@@ -8975,7 +8977,7 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B95">
         <v>97</v>
@@ -9061,7 +9063,7 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B96">
         <v>98</v>
@@ -9147,7 +9149,7 @@
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B97">
         <v>99</v>
@@ -9233,7 +9235,7 @@
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B98">
         <v>100</v>
@@ -9319,7 +9321,7 @@
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B99">
         <v>101</v>
@@ -9405,7 +9407,7 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B100">
         <v>102</v>
@@ -9491,7 +9493,7 @@
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B101">
         <v>103</v>
@@ -9577,7 +9579,7 @@
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B102">
         <v>104</v>
@@ -9663,7 +9665,7 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B103">
         <v>105</v>
@@ -9749,7 +9751,7 @@
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B104">
         <v>106</v>
@@ -9835,7 +9837,7 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B105">
         <v>107</v>
@@ -9921,7 +9923,7 @@
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B106">
         <v>108</v>
@@ -10007,7 +10009,7 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B107">
         <v>109</v>
@@ -10093,7 +10095,7 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B108">
         <v>110</v>
@@ -10179,7 +10181,7 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B109">
         <v>111</v>
@@ -10265,7 +10267,7 @@
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B110">
         <v>112</v>
@@ -10351,7 +10353,7 @@
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B111">
         <v>113</v>
@@ -10437,7 +10439,7 @@
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B112">
         <v>114</v>
@@ -10523,7 +10525,7 @@
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B113">
         <v>115</v>
@@ -10609,7 +10611,7 @@
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B114">
         <v>116</v>
@@ -10695,7 +10697,7 @@
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B115">
         <v>117</v>
@@ -10781,7 +10783,7 @@
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B116">
         <v>118</v>
@@ -10867,7 +10869,7 @@
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B117">
         <v>119</v>
@@ -10953,7 +10955,7 @@
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B118">
         <v>120</v>
@@ -11039,7 +11041,7 @@
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B119">
         <v>121</v>
@@ -11125,7 +11127,7 @@
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B120">
         <v>122</v>
@@ -11211,7 +11213,7 @@
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B121">
         <v>123</v>
@@ -11297,7 +11299,7 @@
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B122">
         <v>124</v>
@@ -11383,7 +11385,7 @@
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B123">
         <v>125</v>
@@ -11469,7 +11471,7 @@
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B124">
         <v>126</v>
@@ -11555,7 +11557,7 @@
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B125">
         <v>127</v>
@@ -11641,7 +11643,7 @@
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B126">
         <v>128</v>
@@ -11727,7 +11729,7 @@
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B127">
         <v>129</v>
@@ -11813,7 +11815,7 @@
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B128">
         <v>130</v>
@@ -11899,7 +11901,7 @@
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B129">
         <v>131</v>
@@ -12065,7 +12067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5447F215-D6E6-4245-B5DB-4C7F7E541763}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -12076,7 +12078,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -12144,73 +12146,73 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="T2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="V2" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
